--- a/file/linear-trend.xlsx
+++ b/file/linear-trend.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
   <si>
     <t>日付</t>
   </si>
@@ -166,6 +166,10 @@
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
+  <si>
+    <t>http://sekika.github.io/2015/10/29/linear-trend-estimation/</t>
+    <phoneticPr fontId="1"/>
+  </si>
 </sst>
 </file>
 
@@ -277,14 +281,15 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="5">
+  <cellStyleXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="176" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -318,10 +323,12 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="5"/>
   </cellXfs>
-  <cellStyles count="5">
+  <cellStyles count="6">
     <cellStyle name="ハイパーリンク" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="ハイパーリンク" xfId="3" builtinId="8" hidden="1"/>
+    <cellStyle name="ハイパーリンク" xfId="5" builtinId="8"/>
     <cellStyle name="標準" xfId="0" builtinId="0"/>
     <cellStyle name="表示済みのハイパーリンク" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="表示済みのハイパーリンク" xfId="4" builtinId="9" hidden="1"/>
@@ -2316,7 +2323,7 @@
   <dimension ref="A1:R132"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="F1" sqref="F1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="12" defaultRowHeight="17" x14ac:dyDescent="0"/>
@@ -2339,6 +2346,9 @@
       <c r="A4" t="s">
         <v>20</v>
       </c>
+      <c r="B4" s="15" t="s">
+        <v>21</v>
+      </c>
     </row>
     <row r="6" spans="1:18" s="4" customFormat="1" ht="14">
       <c r="A6" s="2" t="s">
@@ -5181,9 +5191,12 @@
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
+  <hyperlinks>
+    <hyperlink ref="B4" r:id="rId1"/>
+  </hyperlinks>
   <pageMargins left="0.78700000000000003" right="0.78700000000000003" top="0.98399999999999999" bottom="0.98399999999999999" header="0.51200000000000001" footer="0.51200000000000001"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
-  <drawing r:id="rId1"/>
+  <drawing r:id="rId2"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>
